--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\REPORTE TEMPORAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE7AE3F-A71A-430B-97B5-9306E4FF1607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B03C32-8306-4E75-A54D-76EB2DBD751B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{462273ED-763F-4495-A16E-3D550957B3ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{462273ED-763F-4495-A16E-3D550957B3ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Operarios" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Secciones" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ciclos!$A$1:$A$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ciclos!$A$1:$A$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Secciones!$A$1:$B$634</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1798,7 +1798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2A8391-C384-49B9-A1CD-B4CE74668249}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1829,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFD0701-A063-49A2-AE66-724F94C21F9E}">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD49"/>
+      <selection activeCell="A3" sqref="A3:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,197 +1844,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>290</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A39" xr:uid="{3EFD0701-A063-49A2-AE66-724F94C21F9E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A39">
+  <autoFilter ref="A1:A2" xr:uid="{3EFD0701-A063-49A2-AE66-724F94C21F9E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -2046,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A41536F-2DC9-4645-BE6C-6727531F74E6}">
   <dimension ref="A1:B634"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
